--- a/src/main/resources/xlsx/pcs/pr-5.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5.xlsx
@@ -75,8 +75,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：各分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人初步人选名单
+      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选名单
 </t>
     </r>
     <r>
@@ -89,14 +97,6 @@
       </rPr>
       <t>（“stage”阶段，党委组织部汇总）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：各分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +682,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -739,7 +739,7 @@
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>

--- a/src/main/resources/xlsx/pcs/pr-5.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>入党时间</t>
   </si>
   <si>
-    <t>职别</t>
-  </si>
-  <si>
     <t>职务</t>
   </si>
   <si>
@@ -83,8 +80,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选名单
+      <t xml:space="preserve">中国共产党xxx第xx次党员代表大会代表候选人title人选名单
 </t>
     </r>
     <r>
@@ -682,7 +683,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,7 +722,7 @@
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -739,7 +740,7 @@
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -757,25 +758,25 @@
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
@@ -784,19 +785,19 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
